--- a/biology/Histoire de la zoologie et de la botanique/Albin_Moller/Albin_Moller.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albin_Moller/Albin_Moller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albin Moller (Albinus Mollerus), né à Straupitz en 1541, mort à Altdöbern en 1618, est un théologien, écrivain, astronome, astrologue, botaniste, traducteur, de langue allemande et sorabe, actif dans le Brandebourg (Allemagne orientale) dans les années 1560-1610.
 Il est aussi l'auteur du premier livre publié en sorabe.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille travaillait pour la Maison de Dohna.
 Il apprit le sorabe à son enfance, avant de fréquenter l'école latine de Calau, puis l'université brandebourgeoise de Francfort (sur l'Oder), puis l'université Martin-Luther de Halle-Wittemberg.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prognosticon Astrologicum. Auff die Vier Zeiten und andere Bedeutung der Planeten/Vnd Sternen zum ersten auff das 1573, darnach auff das 1574 Jahr nach Christi Geburt, Hans Wolrab, Bautzen, 1572
 Wendisches Gesangbuch. Hans Wolrab, Bautzen 1574; Nachdruck: Niedersorbisches Gesangbuch und Katechismus. Gedruckt zu Budissin, 1574 (= Veröffentlichungen des Instituts für Slawistik, Band 18). Akademie-Verlag, Berlin, 1959
